--- a/public/uploads/import/UTM-马来西亚理工大学-20210919.xlsx
+++ b/public/uploads/import/UTM-马来西亚理工大学-20210919.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpstudy_pro\WWW\myunidb\public\uploads\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F860ABB1-821C-4228-9ED9-F85F8EE09370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA6C6C9-6E00-4339-9564-03409EC1F7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" tabRatio="1000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" tabRatio="1000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="学校信息" sheetId="2" r:id="rId1"/>
@@ -4500,11 +4500,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>马来西亚-日本国际理工学院
-Malaysia – Japan International Institute of Technology</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>电子系统工程荣誉学士学位
 Bachelor of Electronic System Engineering with Honours</t>
     <phoneticPr fontId="15" type="noConversion"/>
@@ -4523,6 +4518,10 @@
     <t>计算机科学荣誉学士学位(软件工程)
 Bachelor of Computer Science (Software Engineering) with Honours</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>马来西亚-日本国际理工学院
+Malaysia – Japan International Institute of Technology</t>
   </si>
 </sst>
 </file>
@@ -4960,10 +4959,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4979,9 +4981,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5394,10 +5393,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="573" topLeftCell="A193" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A197" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="573" activePane="bottomLeft"/>
       <selection activeCell="A210" sqref="A210"/>
-      <selection pane="bottomLeft" activeCell="P206" sqref="P206"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.27734375" defaultRowHeight="15.7"/>
@@ -5419,72 +5418,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="9" customFormat="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="56" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="51" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="53" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
       <c r="M2" s="10" t="s">
         <v>25</v>
       </c>
       <c r="N2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="51"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1">
       <c r="A3" s="52" t="s">
@@ -5505,7 +5504,7 @@
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
     </row>
-    <row r="4" spans="1:15" s="15" customFormat="1" ht="46">
+    <row r="4" spans="1:15" s="15" customFormat="1">
       <c r="A4" s="18" t="s">
         <v>40</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="46">
+    <row r="5" spans="1:15" s="8" customFormat="1">
       <c r="A5" s="18" t="s">
         <v>46</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="46">
+    <row r="6" spans="1:15">
       <c r="A6" s="18" t="s">
         <v>50</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="61.35">
+    <row r="7" spans="1:15" ht="30.7">
       <c r="A7" s="18" t="s">
         <v>53</v>
       </c>
@@ -5653,7 +5652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="46">
+    <row r="8" spans="1:15" s="8" customFormat="1">
       <c r="A8" s="18" t="s">
         <v>55</v>
       </c>
@@ -5690,7 +5689,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="46">
+    <row r="9" spans="1:15" s="8" customFormat="1">
       <c r="A9" s="18" t="s">
         <v>56</v>
       </c>
@@ -5727,7 +5726,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="46">
+    <row r="10" spans="1:15">
       <c r="A10" s="18" t="s">
         <v>57</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="61.35">
+    <row r="11" spans="1:15" ht="30.7">
       <c r="A11" s="18" t="s">
         <v>59</v>
       </c>
@@ -5801,7 +5800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="76.7">
+    <row r="12" spans="1:15" ht="30.7">
       <c r="A12" s="18" t="s">
         <v>60</v>
       </c>
@@ -5838,7 +5837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="76.7">
+    <row r="13" spans="1:15" ht="30.7">
       <c r="A13" s="24" t="s">
         <v>61</v>
       </c>
@@ -5875,7 +5874,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="46">
+    <row r="14" spans="1:15">
       <c r="A14" s="24" t="s">
         <v>62</v>
       </c>
@@ -5914,7 +5913,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="46">
+    <row r="15" spans="1:15">
       <c r="A15" s="24" t="s">
         <v>65</v>
       </c>
@@ -5953,7 +5952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="46">
+    <row r="16" spans="1:15">
       <c r="A16" s="24" t="s">
         <v>67</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="46">
+    <row r="17" spans="1:15">
       <c r="A17" s="24" t="s">
         <v>69</v>
       </c>
@@ -6027,7 +6026,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="61.35">
+    <row r="18" spans="1:15" ht="30.7">
       <c r="A18" s="24" t="s">
         <v>70</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="61.35">
+    <row r="19" spans="1:15" ht="30.7">
       <c r="A19" s="24" t="s">
         <v>71</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="61.35">
+    <row r="20" spans="1:15" ht="30.7">
       <c r="A20" s="24" t="s">
         <v>72</v>
       </c>
@@ -6138,7 +6137,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="61.35">
+    <row r="21" spans="1:15" ht="30.7">
       <c r="A21" s="24" t="s">
         <v>73</v>
       </c>
@@ -8966,7 +8965,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" ht="44.7" customHeight="1">
       <c r="A93" s="52" t="s">
         <v>186</v>
       </c>
@@ -8985,7 +8984,7 @@
       <c r="N93" s="52"/>
       <c r="O93" s="52"/>
     </row>
-    <row r="94" spans="1:15" ht="78">
+    <row r="94" spans="1:15" ht="31.35">
       <c r="A94" s="24" t="s">
         <v>187</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="62">
+    <row r="95" spans="1:15" ht="31.35">
       <c r="A95" s="24" t="s">
         <v>188</v>
       </c>
@@ -9059,7 +9058,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="76.7">
+    <row r="96" spans="1:15" ht="30.7">
       <c r="A96" s="24" t="s">
         <v>190</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="409.6">
+    <row r="111" spans="1:15" ht="306.7">
       <c r="A111" s="29" t="s">
         <v>218</v>
       </c>
@@ -9683,7 +9682,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="409.6">
+    <row r="112" spans="1:15" ht="199.35">
       <c r="A112" s="29" t="s">
         <v>221</v>
       </c>
@@ -10935,7 +10934,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="409.6">
+    <row r="144" spans="1:15" ht="306.7">
       <c r="A144" s="29" t="s">
         <v>261</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="409.6">
+    <row r="145" spans="1:15" ht="199.35">
       <c r="A145" s="29" t="s">
         <v>262</v>
       </c>
@@ -11116,7 +11115,7 @@
       <c r="N148" s="52"/>
       <c r="O148" s="52"/>
     </row>
-    <row r="149" spans="1:15" ht="46">
+    <row r="149" spans="1:15" ht="30.7">
       <c r="A149" s="18" t="s">
         <v>267</v>
       </c>
@@ -11153,7 +11152,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="46">
+    <row r="150" spans="1:15" ht="30.7">
       <c r="A150" s="18" t="s">
         <v>268</v>
       </c>
@@ -11190,7 +11189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="46">
+    <row r="151" spans="1:15" ht="30.7">
       <c r="A151" s="18" t="s">
         <v>269</v>
       </c>
@@ -11227,7 +11226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="46">
+    <row r="152" spans="1:15" ht="30.7">
       <c r="A152" s="18" t="s">
         <v>271</v>
       </c>
@@ -11264,7 +11263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="46">
+    <row r="153" spans="1:15" ht="30.7">
       <c r="A153" s="18" t="s">
         <v>272</v>
       </c>
@@ -11301,7 +11300,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="46.7">
+    <row r="154" spans="1:15" ht="16">
       <c r="A154" s="18" t="s">
         <v>273</v>
       </c>
@@ -11338,7 +11337,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="46">
+    <row r="155" spans="1:15" ht="30.7">
       <c r="A155" s="18" t="s">
         <v>274</v>
       </c>
@@ -11375,7 +11374,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="61.35">
+    <row r="156" spans="1:15" ht="30.7">
       <c r="A156" s="18" t="s">
         <v>276</v>
       </c>
@@ -11412,7 +11411,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="46">
+    <row r="157" spans="1:15" ht="30.7">
       <c r="A157" s="18" t="s">
         <v>277</v>
       </c>
@@ -12389,7 +12388,7 @@
       <c r="N181" s="52"/>
       <c r="O181" s="52"/>
     </row>
-    <row r="182" spans="1:15" ht="46.7">
+    <row r="182" spans="1:15" ht="16">
       <c r="A182" s="18" t="s">
         <v>314</v>
       </c>
@@ -12426,7 +12425,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="46.7">
+    <row r="183" spans="1:15" ht="16">
       <c r="A183" s="18" t="s">
         <v>315</v>
       </c>
@@ -12463,7 +12462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="46.7">
+    <row r="184" spans="1:15" ht="16">
       <c r="A184" s="18" t="s">
         <v>316</v>
       </c>
@@ -12500,7 +12499,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="46.7">
+    <row r="185" spans="1:15" ht="16">
       <c r="A185" s="18" t="s">
         <v>317</v>
       </c>
@@ -12537,7 +12536,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="46.7">
+    <row r="186" spans="1:15" ht="16">
       <c r="A186" s="18" t="s">
         <v>318</v>
       </c>
@@ -12574,7 +12573,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="46.7">
+    <row r="187" spans="1:15" ht="16">
       <c r="A187" s="18" t="s">
         <v>319</v>
       </c>
@@ -12611,7 +12610,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="46.7">
+    <row r="188" spans="1:15" ht="31.35">
       <c r="A188" s="18" t="s">
         <v>320</v>
       </c>
@@ -12648,7 +12647,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="46.7">
+    <row r="189" spans="1:15" ht="16">
       <c r="A189" s="18" t="s">
         <v>321</v>
       </c>
@@ -13266,7 +13265,7 @@
       <c r="N204" s="52"/>
       <c r="O204" s="52"/>
     </row>
-    <row r="205" spans="1:15" ht="31.35">
+    <row r="205" spans="1:15" ht="16">
       <c r="A205" s="18" t="s">
         <v>346</v>
       </c>
@@ -13303,7 +13302,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="46.7">
+    <row r="206" spans="1:15" ht="16">
       <c r="A206" s="18" t="s">
         <v>348</v>
       </c>
@@ -13340,7 +13339,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="46">
+    <row r="207" spans="1:15" ht="16">
       <c r="A207" s="18" t="s">
         <v>350</v>
       </c>
@@ -14472,8 +14471,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
-      <c r="A235" s="58" t="s">
+    <row r="235" spans="1:15" ht="39.35" customHeight="1">
+      <c r="A235" s="51" t="s">
         <v>393</v>
       </c>
       <c r="B235" s="52"/>
@@ -19137,7 +19136,7 @@
       </c>
     </row>
     <row r="355" spans="1:15">
-      <c r="A355" s="58" t="s">
+      <c r="A355" s="51" t="s">
         <v>505</v>
       </c>
       <c r="B355" s="52"/>
@@ -20405,12 +20404,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A355:O355"/>
-    <mergeCell ref="A93:O93"/>
-    <mergeCell ref="A148:O148"/>
-    <mergeCell ref="A181:O181"/>
-    <mergeCell ref="A204:O204"/>
-    <mergeCell ref="A235:O235"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="A3:O3"/>
     <mergeCell ref="I1:J1"/>
@@ -20425,6 +20418,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A355:O355"/>
+    <mergeCell ref="A93:O93"/>
+    <mergeCell ref="A148:O148"/>
+    <mergeCell ref="A181:O181"/>
+    <mergeCell ref="A204:O204"/>
+    <mergeCell ref="A235:O235"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20435,99 +20434,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="707" topLeftCell="A8" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="707" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.7"/>
   <sheetData>
     <row r="1" spans="1:15" s="9" customFormat="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="54"/>
-      <c r="K1" s="56" t="s">
+      <c r="J1" s="55"/>
+      <c r="K1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="56" t="s">
+      <c r="L1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="51" t="s">
+      <c r="N1" s="58"/>
+      <c r="O1" s="53" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="9" customFormat="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
       <c r="M2" s="13" t="s">
         <v>25</v>
       </c>
       <c r="N2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="51"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:15" s="9" customFormat="1" ht="31.85" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="51" t="s">
         <v>538</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
     </row>
     <row r="4" spans="1:15" ht="156.69999999999999">
       <c r="A4" s="47" t="s">
@@ -20567,27 +20566,27 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="9" customFormat="1" ht="36.6" customHeight="1">
-      <c r="A5" s="58" t="s">
-        <v>543</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
+      <c r="A5" s="51" t="s">
+        <v>547</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" spans="1:15" ht="54" customHeight="1">
       <c r="A6" s="47" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="49" t="s">
@@ -20624,7 +20623,7 @@
     </row>
     <row r="7" spans="1:15" ht="172.35">
       <c r="A7" s="47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="49" t="s">
@@ -20661,7 +20660,7 @@
     </row>
     <row r="8" spans="1:15" ht="156.69999999999999">
       <c r="A8" s="47" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="49" t="s">
@@ -20698,7 +20697,7 @@
     </row>
     <row r="9" spans="1:15" ht="203.7">
       <c r="A9" s="47" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="49" t="s">
